--- a/english/net/developer-guide/charts/chart-globalization-settings/waterfall.xlsx
+++ b/english/net/developer-guide/charts/chart-globalization-settings/waterfall.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7J4746897\Desktop\Test-Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Release Doc\Aspose.Cells-Doc-md\english\net\developer-guide\charts\chart-globalization-settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1F3A33-25FA-4058-8B1D-3DD08384B3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F390163-285C-416A-AD87-A78BABB0B458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BAC53F55-D7E9-444F-B5EF-8D9FE5CBDDD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAC53F55-D7E9-444F-B5EF-8D9FE5CBDDD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$A$2:$A$11</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"3b9eef61-aa01-4220-9f40-9de39eb48aa6"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,12 +49,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -86,7 +92,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -106,7 +112,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -126,6 +132,7 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0.5"/>
+        <cx:title/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -136,6 +143,11 @@
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
 </cx:chartSpace>
 </file>
 
@@ -692,15 +704,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>784860</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -736,8 +748,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="899160" y="41910"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="1577340" y="0"/>
+              <a:ext cx="4572000" cy="2628900"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -756,9 +768,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -771,7 +783,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1070,67 +1082,68 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:A11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
